--- a/Kullanicilar.xlsx
+++ b/Kullanicilar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATAMURAT\Desktop\RaporBotu\RaporBotu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F881F7-7D28-46F2-8150-D8A6F3E3048C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F6C0B3-CBFB-4CDF-B016-B7AD9C0DD801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -267,9 +267,6 @@
     <t>Deniz Hergül</t>
   </si>
   <si>
-    <t>Rol</t>
-  </si>
-  <si>
     <t>SÜPER ADMIN</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>FAP / Lot 13 / Lot 71</t>
+  </si>
+  <si>
+    <t>Botdaki Statusu / Rol</t>
   </si>
 </sst>
 </file>
@@ -993,7 +993,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:K9"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1008,7 +1008,7 @@
     <col min="8" max="8" width="18.54296875" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.453125" style="35" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.35">
@@ -1043,7 +1043,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1077,7 +1077,7 @@
         <v>74</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1109,7 +1109,7 @@
         <v>73</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1143,7 +1143,7 @@
         <v>74</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1179,7 +1179,7 @@
         <v>74</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1213,7 +1213,7 @@
         <v>73</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1247,7 +1247,7 @@
         <v>73</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1281,7 +1281,7 @@
         <v>73</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1300,7 +1300,7 @@
         <v>43</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>68</v>
@@ -1315,7 +1315,7 @@
         <v>73</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -1351,7 +1351,7 @@
         <v>73</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1387,7 +1387,7 @@
         <v>73</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1421,7 +1421,7 @@
         <v>73</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1457,7 +1457,7 @@
         <v>73</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1491,7 +1491,7 @@
         <v>73</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1525,7 +1525,7 @@
         <v>73</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1559,7 +1559,7 @@
         <v>73</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1595,7 +1595,7 @@
         <v>73</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1631,7 +1631,7 @@
         <v>73</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1665,7 +1665,7 @@
         <v>73</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1697,7 +1697,7 @@
         <v>73</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Kullanicilar.xlsx
+++ b/Kullanicilar.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATAMURAT\Desktop\RaporBotu\RaporBotu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F6C0B3-CBFB-4CDF-B016-B7AD9C0DD801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2D4700-C43D-4149-80BE-55FCA6110287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>S/N</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Aktif / Pasif</t>
-  </si>
-  <si>
-    <t>Takip</t>
   </si>
   <si>
     <t>Özel Rapor</t>
@@ -990,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1006,12 +1003,11 @@
     <col min="6" max="6" width="22.36328125" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.7265625" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.08984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,668 +1036,608 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A20" si="0">ROW()-ROW($A$1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="40">
         <v>709746899</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>73</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <f>ROW()-ROW($A$1)</f>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>73</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="40">
         <v>1000157326</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>73</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="41">
         <v>875283061</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="42">
         <v>847168715</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="43">
         <v>7256383820</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="44">
         <v>764458420</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="45">
         <v>798781897</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="45">
         <v>7792841543</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="46">
         <v>7833350491</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="46">
         <v>1915863915</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="46">
         <v>7424381515</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="47">
         <v>8417715766</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="47">
         <v>7999884541</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="47">
         <v>5749624429</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="47">
         <v>7303469876</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="47">
         <v>6011579317</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="38"/>
       <c r="E20" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K20" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J20" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B7:C7 E7">
     <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>

--- a/Kullanicilar.xlsx
+++ b/Kullanicilar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATAMURAT\Desktop\RaporBotu\RaporBotu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2D4700-C43D-4149-80BE-55FCA6110287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA40DC6-50D7-44A7-B08A-829426EC1447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
   <si>
     <t>S/N</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>+998 95 115 71 70</t>
-  </si>
-  <si>
-    <t>Tümü</t>
   </si>
   <si>
     <t>Belli değil</t>
@@ -990,7 +987,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1036,7 +1033,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1054,20 +1051,18 @@
       <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="F2" s="6"/>
       <c r="G2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1083,20 +1078,18 @@
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1114,20 +1107,18 @@
       <c r="E4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="J4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1147,20 +1138,18 @@
       <c r="E5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1179,19 +1168,19 @@
         <v>39</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1210,19 +1199,19 @@
         <v>40</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1241,19 +1230,19 @@
         <v>41</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1272,19 +1261,19 @@
         <v>42</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -1305,19 +1294,19 @@
         <v>43</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1338,19 +1327,19 @@
         <v>44</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1369,19 +1358,19 @@
         <v>45</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1402,19 +1391,19 @@
         <v>46</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1433,19 +1422,19 @@
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1464,19 +1453,19 @@
         <v>47</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1495,19 +1484,19 @@
         <v>48</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1516,7 +1505,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>34</v>
@@ -1528,19 +1517,19 @@
         <v>49</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1561,19 +1550,19 @@
         <v>50</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1592,19 +1581,19 @@
         <v>51</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1621,19 +1610,19 @@
         <v>52</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Kullanicilar.xlsx
+++ b/Kullanicilar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATAMURAT\Desktop\RaporBotu\RaporBotu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA40DC6-50D7-44A7-B08A-829426EC1447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E32338A-B8DA-4853-9615-54C5FB3EB5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>S/N</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>Botdaki Statusu / Rol</t>
+  </si>
+  <si>
+    <t>TÜMÜ</t>
   </si>
 </sst>
 </file>
@@ -987,7 +990,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1051,7 +1054,9 @@
       <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G2" s="5" t="s">
         <v>61</v>
       </c>
@@ -1078,7 +1083,9 @@
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G3" s="5" t="s">
         <v>62</v>
       </c>
@@ -1107,7 +1114,9 @@
       <c r="E4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G4" s="5" t="s">
         <v>63</v>
       </c>
@@ -1138,7 +1147,9 @@
       <c r="E5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G5" s="5" t="s">
         <v>64</v>
       </c>

--- a/Kullanicilar.xlsx
+++ b/Kullanicilar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATAMURAT\Desktop\RaporBotu\RaporBotu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E32338A-B8DA-4853-9615-54C5FB3EB5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF4C4D0-0702-4546-8F80-D23F2121F87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,13 +273,13 @@
     <t>İZLEYİCİ</t>
   </si>
   <si>
-    <t>FAP / Lot 13 / Lot 71</t>
-  </si>
-  <si>
     <t>Botdaki Statusu / Rol</t>
   </si>
   <si>
     <t>TÜMÜ</t>
+  </si>
+  <si>
+    <t>STADYUM / Lot 13 / Lot 71</t>
   </si>
 </sst>
 </file>
@@ -990,7 +990,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1036,7 +1036,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1055,7 +1055,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>61</v>
@@ -1084,7 +1084,7 @@
       <c r="D3" s="38"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>62</v>
@@ -1115,7 +1115,7 @@
         <v>37</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>63</v>
@@ -1148,7 +1148,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>64</v>
@@ -1272,7 +1272,7 @@
         <v>42</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>66</v>

--- a/Kullanicilar.xlsx
+++ b/Kullanicilar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATAMURAT\Desktop\RaporBotu\RaporBotu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF4C4D0-0702-4546-8F80-D23F2121F87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896A5DCF-1C5D-44D5-9FEE-D460196BE681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,9 +204,6 @@
     <t>OHP / KÖKSARAY</t>
   </si>
   <si>
-    <t>YHP / TYM / MMP / RMC</t>
-  </si>
-  <si>
     <t>SKP (DAHO) / DMC / KÖKSARAY</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>STADYUM / Lot 13 / Lot 71</t>
+  </si>
+  <si>
+    <t>YHP / TYM / MMP / RMC / MOS</t>
   </si>
 </sst>
 </file>
@@ -990,24 +990,24 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.36328125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.08984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,10 +1036,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A20" si="0">ROW()-ROW($A$1)</f>
         <v>1</v>
@@ -1055,22 +1055,22 @@
         <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1084,22 +1084,22 @@
       <c r="D3" s="38"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f>ROW()-ROW($A$1)</f>
         <v>3</v>
@@ -1115,22 +1115,22 @@
         <v>37</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="J4" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1148,22 +1148,22 @@
         <v>38</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1182,19 +1182,19 @@
         <v>53</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1213,19 +1213,19 @@
         <v>54</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1241,22 +1241,22 @@
         <v>41</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1272,22 +1272,22 @@
         <v>42</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1305,22 +1305,22 @@
         <v>43</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1338,22 +1338,22 @@
         <v>44</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1369,22 +1369,22 @@
         <v>45</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1402,22 +1402,22 @@
         <v>46</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1433,22 +1433,22 @@
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1464,22 +1464,22 @@
         <v>47</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1495,28 +1495,28 @@
         <v>48</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>34</v>
@@ -1528,22 +1528,22 @@
         <v>49</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1561,22 +1561,22 @@
         <v>50</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1592,22 +1592,22 @@
         <v>51</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1621,19 +1621,19 @@
         <v>52</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Kullanicilar.xlsx
+++ b/Kullanicilar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATAMURAT\Desktop\RaporBotu\RaporBotu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896A5DCF-1C5D-44D5-9FEE-D460196BE681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD47C08-A902-4A48-B0F9-ED226E398137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -990,7 +990,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1311,7 +1311,7 @@
         <v>66</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="25" t="s">
         <v>70</v>

--- a/Kullanicilar.xlsx
+++ b/Kullanicilar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATAMURAT\Desktop\RaporBotu\RaporBotu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD47C08-A902-4A48-B0F9-ED226E398137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D586D8-4BC9-4DED-919C-BC723C68D2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="83">
   <si>
     <t>S/N</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>YHP / TYM / MMP / RMC / MOS</t>
+  </si>
+  <si>
+    <t>DATA CENTR</t>
+  </si>
+  <si>
+    <t>@S_Temur0222</t>
   </si>
 </sst>
 </file>
@@ -990,7 +996,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1456,7 +1462,9 @@
       <c r="B15" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="32" t="s">
+        <v>82</v>
+      </c>
       <c r="D15" s="47">
         <v>8417715766</v>
       </c>
@@ -1464,7 +1472,7 @@
         <v>47</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>64</v>
